--- a/Analysis/QuixBugs_Gemini-APR/APR_one_shot_Gemini_1.0_Pro_Python.xlsx
+++ b/Analysis/QuixBugs_Gemini-APR/APR_one_shot_Gemini_1.0_Pro_Python.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mraee\Desktop\Investigation\Bug Busters\Analysis\QuixBugs_Gemini-APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7024895-BA0D-4297-974B-C1D0400B2ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C18741C-3156-42EA-8554-06CA086DEEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{0BDE68CC-1B06-41C6-8D01-3161BEB09002}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{0BDE68CC-1B06-41C6-8D01-3161BEB09002}"/>
   </bookViews>
   <sheets>
     <sheet name="APR_one_shot_Gemini_1.0_Pro_Pyt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="313">
   <si>
     <t>File Name</t>
   </si>
@@ -3621,6 +3634,822 @@
   </si>
   <si>
     <t>Correct Repair</t>
+  </si>
+  <si>
+    <t>Test Cases (For responses that are not identical to the correct code)</t>
+  </si>
+  <si>
+    <t>collected 6 items
+test_detect_cycle.py ......                                                                                                                                                                                                        [100%]
+=========================================================================================================== 6 passed in 0.06s ===========================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 8 items
+test_hanoi.py .FFFFFFF                                                                                                                                                                                                             [100%]
+=============================================================================================================== FAILURES ================================================================================================================ 
+___________________________________________________________________________________________________ test_hanoi[input_data1-expected1] ___________________________________________________________________________________________________ 
+input_data = [1, 1, 3], expected = [(1, 3)]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_hanoi(input_data, expected):
+&gt;       assert hanoi(*input_data) == expected
+E       assert [(2, 3)] == [(1, 3)]
+E
+E         At index 0 diff: (2, 3) != (1, 3)
+E         Use -v to get more diff
+test_hanoi.py:21: AssertionError
+___________________________________________________________________________________________________ test_hanoi[input_data2-expected2] ___________________________________________________________________________________________________ 
+input_data = [2, 1, 3], expected = [(1, 2), (1, 3), (2, 3)]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_hanoi(input_data, expected):
+&gt;       assert hanoi(*input_data) == expected
+E       assert [(3, 2), (2, 3), (1, 3)] == [(1, 2), (1, 3), (2, 3)]
+E
+E         At index 0 diff: (3, 2) != (1, 2)
+E         Use -v to get more diff
+test_hanoi.py:21: AssertionError
+___________________________________________________________________________________________________ test_hanoi[input_data3-expected3] ___________________________________________________________________________________________________ 
+input_data = [3, 1, 3], expected = [(1, 3), (1, 2), (3, 2), (1, 3), (2, 1), (2, 3), ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_hanoi(input_data, expected):
+&gt;       assert hanoi(*input_data) == expected
+E       assert [(2, 3), (3, ..., (1, 3), ...] == [(1, 3), (1, ..., (2, 3), ...]
+E
+E         At index 0 diff: (2, 3) != (1, 3)
+E         Use -v to get more diff
+test_hanoi.py:21: AssertionError
+___________________________________________________________________________________________________ test_hanoi[input_data4-expected4] ___________________________________________________________________________________________________ 
+input_data = [4, 1, 3], expected = [(1, 2), (1, 3), (2, 3), (1, 2), (3, 1), (3, 2), ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_hanoi(input_data, expected):
+&gt;       assert hanoi(*input_data) == expected
+E       assert [(3, 2), (2, ..., (1, 2), ...] == [(1, 2), (1, ..., (3, 2), ...]
+E
+E         At index 0 diff: (3, 2) != (1, 2)
+E         Use -v to get more diff
+test_hanoi.py:21: AssertionError
+___________________________________________________________________________________________________ test_hanoi[input_data5-expected5] ___________________________________________________________________________________________________ 
+input_data = [2, 1, 2], expected = [(1, 3), (1, 2), (3, 2)]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_hanoi(input_data, expected):
+&gt;       assert hanoi(*input_data) == expected
+E       assert [(2, 3), (3, 2), (1, 2)] == [(1, 3), (1, 2), (3, 2)]
+E
+E         At index 0 diff: (2, 3) != (1, 3)
+E         Use -v to get more diff
+test_hanoi.py:21: AssertionError
+___________________________________________________________________________________________________ test_hanoi[input_data6-expected6] ___________________________________________________________________________________________________ 
+input_data = [2, 1, 1], expected = [(1, 2), (1, 1), (2, 1)]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_hanoi(input_data, expected):
+&gt;       assert hanoi(*input_data) == expected
+E       assert [(3, 2), (2, 1), (3, 1)] == [(1, 2), (1, 1), (2, 1)]
+E
+E         At index 0 diff: (3, 2) != (1, 2)
+E         Use -v to get more diff
+test_hanoi.py:21: AssertionError
+___________________________________________________________________________________________________ test_hanoi[input_data7-expected7] ___________________________________________________________________________________________________ 
+input_data = [2, 3, 1], expected = [(3, 2), (3, 1), (2, 1)]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_hanoi(input_data, expected):
+&gt;       assert hanoi(*input_data) == expected
+E       assert [(1, 2), (2, 1), (3, 1)] == [(3, 2), (3, 1), (2, 1)]
+E
+E         At index 0 diff: (1, 2) != (3, 2)
+E         Use -v to get more diff
+test_hanoi.py:21: AssertionError
+======================================================================================================== short test summary info ======================================================================================================== 
+FAILED test_hanoi.py::test_hanoi[input_data1-expected1] - assert [(2, 3)] == [(1, 3)]
+FAILED test_hanoi.py::test_hanoi[input_data2-expected2] - assert [(3, 2), (2, 3), (1, 3)] == [(1, 2), (1, 3), (2, 3)]
+FAILED test_hanoi.py::test_hanoi[input_data3-expected3] - assert [(2, 3), (3, ..., (1, 3), ...] == [(1, 3), (1, ..., (2, 3), ...]
+FAILED test_hanoi.py::test_hanoi[input_data4-expected4] - assert [(3, 2), (2, ..., (1, 2), ...] == [(1, 2), (1, ..., (3, 2), ...]
+FAILED test_hanoi.py::test_hanoi[input_data5-expected5] - assert [(2, 3), (3, 2), (1, 2)] == [(1, 3), (1, 2), (3, 2)]
+FAILED test_hanoi.py::test_hanoi[input_data6-expected6] - assert [(3, 2), (2, 1), (3, 1)] == [(1, 2), (1, 1), (2, 1)]
+FAILED test_hanoi.py::test_hanoi[input_data7-expected7] - assert [(1, 2), (2, 1), (3, 1)] == [(3, 2), (3, 1), (2, 1)]
+====================================================================================================== 7 failed, 1 passed in 0.25s ======================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 7 items
+test_kth.py FF...FF                                                                                                                                                                                                                [100%]
+=============================================================================================================== FAILURES ================================================================================================================ 
+________________________________________________________________________________________________________ test_kth[input_data0-5] ________________________________________________________________________________________________________ 
+input_data = [[1, 2, 3, 4, 5, 6, ...], 4], expected = 5
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_kth(input_data, expected):
+&gt;       assert kth(*input_data) == expected
+test_kth.py:25:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+arr = [], k = 4
+    def kth(arr, k):
+&gt;       pivot = arr[0]
+E       IndexError: list index out of range
+test_kth.py:5: IndexError
+________________________________________________________________________________________________________ test_kth[input_data1-7] ________________________________________________________________________________________________________ 
+input_data = [[3, 6, 7, 1, 6, 3, ...], 5], expected = 7
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_kth(input_data, expected):
+&gt;       assert kth(*input_data) == expected
+test_kth.py:25:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+arr = [], k = 4
+    def kth(arr, k):
+&gt;       pivot = arr[0]
+E       IndexError: list index out of range
+test_kth.py:5: IndexError
+________________________________________________________________________________________________________ test_kth[input_data5-6] ________________________________________________________________________________________________________ 
+input_data = [[45, 2, 6, 8, 42, 90, ...], 1], expected = 6
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_kth(input_data, expected):
+&gt;       assert kth(*input_data) == expected
+test_kth.py:25:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+test_kth.py:13: in kth
+    return kth(below, k)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+arr = [], k = 1
+    def kth(arr, k):
+&gt;       pivot = arr[0]
+E       IndexError: list index out of range
+test_kth.py:5: IndexError
+_______________________________________________________________________________________________________ test_kth[input_data6-322] _______________________________________________________________________________________________________ 
+input_data = [[45, 2, 6, 8, 42, 90, ...], 6], expected = 322
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_kth(input_data, expected):
+&gt;       assert kth(*input_data) == expected
+test_kth.py:25:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+test_kth.py:15: in kth
+    return kth(above, k - num_less)
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+arr = [], k = 2
+    def kth(arr, k):
+&gt;       pivot = arr[0]
+E       IndexError: list index out of range
+test_kth.py:5: IndexError
+======================================================================================================== short test summary info ======================================================================================================== 
+FAILED test_kth.py::test_kth[input_data0-5] - IndexError: list index out of range
+FAILED test_kth.py::test_kth[input_data1-7] - IndexError: list index out of range
+FAILED test_kth.py::test_kth[input_data5-6] - IndexError: list index out of range
+FAILED test_kth.py::test_kth[input_data6-322] - IndexError: list index out of range
+====================================================================================================== 4 failed, 3 passed in 0.22s ======================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 7 items
+test_levenshtein.py FFFsF.F                                                                                                                                                                                                        [100%]
+=============================================================================================================== FAILURES ================================================================================================================ 
+____________________________________________________________________________________________________ test_levenshtein[input_data0-3] ____________________________________________________________________________________________________
+input_data = ['electron', 'neutron'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 10 == 3
+E        +  where 10 = levenshtein(*['electron', 'neutron'])
+test_levenshtein.py:30: AssertionError
+____________________________________________________________________________________________________ test_levenshtein[input_data1-3] ____________________________________________________________________________________________________ 
+input_data = ['kitten', 'sitting'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 9 == 3
+E        +  where 9 = levenshtein(*['kitten', 'sitting'])
+test_levenshtein.py:30: AssertionError
+____________________________________________________________________________________________________ test_levenshtein[input_data2-8] ____________________________________________________________________________________________________ 
+input_data = ['rosettacode', 'raisethysword'], expected = 8
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 18 == 8
+E        +  where 18 = levenshtein(*['rosettacode', 'raisethysword'])
+test_levenshtein.py:30: AssertionError
+____________________________________________________________________________________________________ test_levenshtein[input_data4-2] ____________________________________________________________________________________________________ 
+input_data = ['abcdefg', 'gabcdef'], expected = 2
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 8 == 2
+E        +  where 8 = levenshtein(*['abcdefg', 'gabcdef'])
+test_levenshtein.py:30: AssertionError
+____________________________________________________________________________________________________ test_levenshtein[input_data6-4] ____________________________________________________________________________________________________ 
+input_data = ['hello', 'olleh'], expected = 4
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 8 == 4
+E        +  where 8 = levenshtein(*['hello', 'olleh'])
+test_levenshtein.py:30: AssertionError
+======================================================================================================== short test summary info ======================================================================================================== 
+FAILED test_levenshtein.py::test_levenshtein[input_data0-3] - AssertionError: assert 10 == 3
+FAILED test_levenshtein.py::test_levenshtein[input_data1-3] - AssertionError: assert 9 == 3
+FAILED test_levenshtein.py::test_levenshtein[input_data2-8] - AssertionError: assert 18 == 8
+FAILED test_levenshtein.py::test_levenshtein[input_data4-2] - AssertionError: assert 8 == 2
+FAILED test_levenshtein.py::test_levenshtein[input_data6-4] - AssertionError: assert 8 == 4
+================================================================================================ 5 failed, 1 passed, 1 skipped in 24.11s ================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 12 items
+test_lis.py ............                                                                                                                                                                                                           [100%]
+========================================================================================================== 12 passed in 0.05s ===========================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 6 items
+test_max_sublist_sum.py FF.F.F                                                                                                                                                                                                     [100%]
+=============================================================================================================== FAILURES ================================================================================================================ 
+__________________________________________________________________________________________________ test_max_sublist_sum[input_data0-5] __________________________________________________________________________________________________ 
+input_data = [[4, -5, 2, 1, -1, 3]], expected = 5
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_max_sublist_sum(input_data, expected):
+&gt;       assert max_sublist_sum(*input_data) == expected
+E       assert 10 == 5
+E        +  where 10 = max_sublist_sum(*[[4, -5, 2, 1, -1, 3]])
+test_max_sublist_sum.py:22: AssertionError
+__________________________________________________________________________________________________ test_max_sublist_sum[input_data1-4] __________________________________________________________________________________________________ 
+input_data = [[0, -1, 2, -1, 3, -1, ...]], expected = 4
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_max_sublist_sum(input_data, expected):
+&gt;       assert max_sublist_sum(*input_data) == expected
+E       assert 5 == 4
+E        +  where 5 = max_sublist_sum(*[[0, -1, 2, -1, 3, -1, ...]])
+test_max_sublist_sum.py:22: AssertionError
+_________________________________________________________________________________________________ test_max_sublist_sum[input_data3-19] __________________________________________________________________________________________________ 
+input_data = [[4, -2, -8, 5, -2, 7, ...]], expected = 19
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_max_sublist_sum(input_data, expected):
+&gt;       assert max_sublist_sum(*input_data) == expected
+E       assert 30 == 19
+E        +  where 30 = max_sublist_sum(*[[4, -2, -8, 5, -2, 7, ...]])
+test_max_sublist_sum.py:22: AssertionError
+__________________________________________________________________________________________________ test_max_sublist_sum[input_data5-6] __________________________________________________________________________________________________ 
+input_data = [[-2, 1, -3, 4, -1, 2, ...]], expected = 6
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_max_sublist_sum(input_data, expected):
+&gt;       assert max_sublist_sum(*input_data) == expected
+E       assert 12 == 6
+E        +  where 12 = max_sublist_sum(*[[-2, 1, -3, 4, -1, 2, ...]])
+test_max_sublist_sum.py:22: AssertionError
+======================================================================================================== short test summary info ======================================================================================================== 
+FAILED test_max_sublist_sum.py::test_max_sublist_sum[input_data0-5] - assert 10 == 5
+FAILED test_max_sublist_sum.py::test_max_sublist_sum[input_data1-4] - assert 5 == 4
+FAILED test_max_sublist_sum.py::test_max_sublist_sum[input_data3-19] - assert 30 == 19
+FAILED test_max_sublist_sum.py::test_max_sublist_sum[input_data5-6] - assert 12 == 6
+====================================================================================================== 4 failed, 2 passed in 0.18s ======================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 5 items
+test_powerset.py FFF.F                                                                                                                                                                                                             [100%]
+=============================================================================================================== FAILURES ================================================================================================================ 
+_________________________________________________________________________________________________ test_powerset[input_data0-expected0] __________________________________________________________________________________________________ 
+input_data = [['a', 'b', 'c']], expected = [[], ['c'], ['b'], ['b', 'c'], ['a'], ['a', 'c'], ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_powerset(input_data, expected):
+&gt;       assert powerset(*input_data) == expected
+E       AssertionError: assert [['a', 'b', '...], ['b'], ...] == [[], ['c'], [...a', 'c'], ...]
+E
+E         At index 0 diff: ['a', 'b', 'c'] != []
+E         Use -v to get more diff
+test_powerset.py:18: AssertionError
+_________________________________________________________________________________________________ test_powerset[input_data1-expected1] __________________________________________________________________________________________________ 
+input_data = [['a', 'b']], expected = [[], ['b'], ['a'], ['a', 'b']]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_powerset(input_data, expected):
+&gt;       assert powerset(*input_data) == expected
+E       AssertionError: assert [['a', 'b'], ['a'], ['b'], []] == [[], ['b'], ['a'], ['a', 'b']]
+E
+E         At index 0 diff: ['a', 'b'] != []
+E         Use -v to get more diff
+test_powerset.py:18: AssertionError
+_________________________________________________________________________________________________ test_powerset[input_data2-expected2] __________________________________________________________________________________________________ 
+input_data = [['a']], expected = [[], ['a']]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_powerset(input_data, expected):
+&gt;       assert powerset(*input_data) == expected
+E       AssertionError: assert [['a'], []] == [[], ['a']]
+E
+E         At index 0 diff: ['a'] != []
+E         Use -v to get more diff
+test_powerset.py:18: AssertionError
+_________________________________________________________________________________________________ test_powerset[input_data4-expected4] __________________________________________________________________________________________________ 
+input_data = [['x', 'df', 'z', 'm']], expected = [[], ['m'], ['z'], ['z', 'm'], ['df'], ['df', 'm'], ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_powerset(input_data, expected):
+&gt;       assert powerset(*input_data) == expected
+E       AssertionError: assert [['x', 'df', ...x', 'z'], ...] == [[], ['m'], [...f', 'm'], ...]
+E
+E         At index 0 diff: ['x', 'df', 'z', 'm'] != []
+E         Use -v to get more diff
+test_powerset.py:18: AssertionError
+======================================================================================================== short test summary info ======================================================================================================== 
+FAILED test_powerset.py::test_powerset[input_data0-expected0] - AssertionError: assert [['a', 'b', '...], ['b'], ...] == [[], ['c'], [...a', 'c'], ...]
+FAILED test_powerset.py::test_powerset[input_data1-expected1] - AssertionError: assert [['a', 'b'], ['a'], ['b'], []] == [[], ['b'], ['a'], ['a', 'b']]
+FAILED test_powerset.py::test_powerset[input_data2-expected2] - AssertionError: assert [['a'], []] == [[], ['a']]
+FAILED test_powerset.py::test_powerset[input_data4-expected4] - AssertionError: assert [['x', 'df', ...x', 'z'], ...] == [[], ['m'], [...f', 'm'], ...]
+====================================================================================================== 4 failed, 1 passed in 0.20s ======================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 13 items
+test_quicksort.py .F...........                                                                                                                                                                                                    [100%]
+=============================================================================================================== FAILURES ================================================================================================================ 
+_________________________________________________________________________________________________ test_quicksort[input_data1-expected1] _________________________________________________________________________________________________ 
+input_data = [[3, 1, 4, 1, 5, 9, ...]], expected = [1, 1, 2, 3, 3, 3, ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_quicksort(input_data, expected):
+&gt;       assert quicksort(*input_data) == expected
+E       assert [1, 2, 3, 4, 5, 6, ...] == [1, 1, 2, 3, 3, 3, ...]
+E
+E         At index 1 diff: 2 != 1
+E         Right contains 7 more items, first extra item: 5
+E         Use -v to get more diff
+test_quicksort.py:20: AssertionError
+======================================================================================================== short test summary info ======================================================================================================== 
+FAILED test_quicksort.py::test_quicksort[input_data1-expected1] - assert [1, 2, 3, 4, 5, 6, ...] == [1, 1, 2, 3, 3, 3, ...]
+===================================================================================================== 1 failed, 12 passed in 0.19s ======================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 6 items
+test_rpn_eval.py F.F..F                                                                                                                                                                                                            [100%]
+=============================================================================================================== FAILURES ================================================================================================================ 
+____________________________________________________________________________________________________ test_rpn_eval[input_data0-4.0] _____________________________________________________________________________________________________ 
+input_data = [[3.0, 5.0, '+', 2.0, '/']], expected = 4.0
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_rpn_eval(input_data, expected):
+&gt;       assert rpn_eval(*input_data) == expected
+E       AssertionError: assert 0.25 == 4.0
+E        +  where 0.25 = rpn_eval(*[[3.0, 5.0, '+', 2.0, '/']])
+test_rpn_eval.py:33: AssertionError
+____________________________________________________________________________________________________ test_rpn_eval[input_data2-8.0] _____________________________________________________________________________________________________ 
+input_data = [[7.0, 4.0, '+', 3.0, '-']], expected = 8.0
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_rpn_eval(input_data, expected):
+&gt;       assert rpn_eval(*input_data) == expected
+E       AssertionError: assert -8.0 == 8.0
+E        +  where -8.0 = rpn_eval(*[[7.0, 4.0, '+', 3.0, '-']])
+test_rpn_eval.py:33: AssertionError
+____________________________________________________________________________________________________ test_rpn_eval[input_data5-14.0] ____________________________________________________________________________________________________ 
+input_data = [[5.0, 1.0, 2.0, '+', 4.0, '*', ...]], expected = 14.0
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_rpn_eval(input_data, expected):
+&gt;       assert rpn_eval(*input_data) == expected
+E       AssertionError: assert -14.0 == 14.0
+E        +  where -14.0 = rpn_eval(*[[5.0, 1.0, 2.0, '+', 4.0, '*', ...]])
+test_rpn_eval.py:33: AssertionError
+======================================================================================================== short test summary info ======================================================================================================== 
+FAILED test_rpn_eval.py::test_rpn_eval[input_data0-4.0] - AssertionError: assert 0.25 == 4.0
+FAILED test_rpn_eval.py::test_rpn_eval[input_data2-8.0] - AssertionError: assert -8.0 == 8.0
+FAILED test_rpn_eval.py::test_rpn_eval[input_data5-14.0] - AssertionError: assert -14.0 == 14.0
+====================================================================================================== 3 failed, 3 passed in 0.19s ======================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 3 items
+test_shortest_paths.py FFF                                                                                                                                                                                                         [100%]
+=============================================================================================================== FAILURES ================================================================================================================ 
+_________________________________________________________________________________________________________________ test1 _________________________________________________________________________________________________________________ 
+    def test1():
+        """Case 1: Graph with multiple paths
+        Output: {'A': 0, 'C': 3, 'B': 1, 'E': 5, 'D': 10, 'F': 4}
+        """
+        graph = {
+            ("A", "B"): 3,
+            ("A", "C"): 3,
+            ("A", "F"): 5,
+            ("C", "B"): -2,
+            ("C", "D"): 7,
+            ("C", "E"): 4,
+            ("D", "E"): -5,
+            ("E", "F"): -1,
+        }
+        result = shortest_paths("A", graph)
+        expected = {"A": 0, "C": 3, "B": 1, "E": 5, "D": 10, "F": 4}
+&gt;       assert result == expected
+E       AssertionError: assert {'A': 0, 'B':...'D': inf, ...} == {'A': 0, 'B':... 'D': 10, ...}
+E
+E         Omitting 1 identical items, use -vv to show
+E         Differing items:
+E         {'E': inf} != {'E': 5}
+E         {'F': inf} != {'F': 4}
+E         {'B': inf} != {'B': 1}
+E
+E         ...Full output truncated (4 lines hidden), use '-vv' to show
+test_shortest_paths.py:34: AssertionError
+_________________________________________________________________________________________________________________ test2 _________________________________________________________________________________________________________________
+    def test2():
+        """Case 2: Graph with one path
+        Output: {'A': 0, 'C': 3, 'B': 1, 'E': 5, 'D': 6, 'F': 9}
+        """
+        graph2 = {
+            ("A", "B"): 1,
+            ("B", "C"): 2,
+            ("C", "D"): 3,
+            ("D", "E"): -1,
+            ("E", "F"): 4,
+        }
+        result = shortest_paths("A", graph2)
+        expected = {"A": 0, "C": 3, "B": 1, "E": 5, "D": 6, "F": 9}
+&gt;       assert result == expected
+E       AssertionError: assert {'A': 0, 'B':...'D': inf, ...} == {'A': 0, 'B':..., 'D': 6, ...}
+E
+E         Omitting 1 identical items, use -vv to show
+E         Differing items:
+E         {'E': inf} != {'E': 5}
+E         {'F': inf} != {'F': 9}
+E         {'B': inf} != {'B': 1}
+E
+E         ...Full output truncated (4 lines hidden), use '-vv' to show
+test_shortest_paths.py:52: AssertionError
+_________________________________________________________________________________________________________________ test3 _________________________________________________________________________________________________________________ 
+    def test3():
+        """Case 3: Graph with cycle
+        Output: {'A': 0, 'C': 3, 'B': 1, 'E': 5, 'D': 6, 'F': 9}
+        """
+        graph3 = {
+            ("A", "B"): 1,
+            ("B", "C"): 2,
+            ("C", "D"): 3,
+            ("D", "E"): -1,
+            ("E", "D"): 1,
+            ("E", "F"): 4,
+        }
+        result = shortest_paths("A", graph3)
+        expected = {"A": 0, "C": 3, "B": 1, "E": 5, "D": 6, "F": 9}
+&gt;       assert result == expected
+E       AssertionError: assert {'A': 0, 'B':...'D': inf, ...} == {'A': 0, 'B':..., 'D': 6, ...}
+E
+E         Omitting 1 identical items, use -vv to show
+E         Differing items:
+E         {'E': inf} != {'E': 5}
+E         {'F': inf} != {'F': 9}
+E         {'B': inf} != {'B': 1}
+E
+E         ...Full output truncated (4 lines hidden), use '-vv' to show
+test_shortest_paths.py:71: AssertionError
+======================================================================================================== short test summary info ======================================================================================================== 
+FAILED test_shortest_paths.py::test1 - AssertionError: assert {'A': 0, 'B':...'D': inf, ...} == {'A': 0, 'B':... 'D': 10, ...}
+FAILED test_shortest_paths.py::test2 - AssertionError: assert {'A': 0, 'B':...'D': inf, ...} == {'A': 0, 'B':..., 'D': 6, ...}
+FAILED test_shortest_paths.py::test3 - AssertionError: assert {'A': 0, 'B':...'D': inf, ...} == {'A': 0, 'B':..., 'D': 6, ...}
+=========================================================================================================== 3 failed in 0.20s ===========================================================================================================</t>
+  </si>
+  <si>
+    <t>syntax error</t>
+  </si>
+  <si>
+    <t>collected 6 items
+test_sieve.py .FFFFF                                                                                                                                                                                                               [100%]
+=============================================================================================================== FAILURES ================================================================================================================ 
+___________________________________________________________________________________________________ test_sieve[input_data1-expected1] ___________________________________________________________________________________________________ 
+input_data = [2], expected = [2]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_sieve(input_data, expected):
+&gt;       assert sieve(*input_data) == expected
+E       assert [] == [2]
+E
+E         Right contains one more item: 2
+E         Use -v to get more diff
+test_sieve.py:17: AssertionError
+___________________________________________________________________________________________________ test_sieve[input_data2-expected2] ___________________________________________________________________________________________________ 
+input_data = [4], expected = [2, 3]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_sieve(input_data, expected):
+&gt;       assert sieve(*input_data) == expected
+E       assert [] == [2, 3]
+E
+E         Right contains 2 more items, first extra item: 2
+E         Use -v to get more diff
+test_sieve.py:17: AssertionError
+___________________________________________________________________________________________________ test_sieve[input_data3-expected3] ___________________________________________________________________________________________________ 
+input_data = [7], expected = [2, 3, 5, 7]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_sieve(input_data, expected):
+&gt;       assert sieve(*input_data) == expected
+E       assert [] == [2, 3, 5, 7]
+E
+E         Right contains 4 more items, first extra item: 2
+E         Use -v to get more diff
+test_sieve.py:17: AssertionError
+___________________________________________________________________________________________________ test_sieve[input_data4-expected4] ___________________________________________________________________________________________________ 
+input_data = [20], expected = [2, 3, 5, 7, 11, 13, ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_sieve(input_data, expected):
+&gt;       assert sieve(*input_data) == expected
+E       assert [] == [2, 3, 5, 7, 11, 13, ...]
+E
+E         Right contains 8 more items, first extra item: 2
+E         Use -v to get more diff
+test_sieve.py:17: AssertionError
+___________________________________________________________________________________________________ test_sieve[input_data5-expected5] ___________________________________________________________________________________________________ 
+input_data = [50], expected = [2, 3, 5, 7, 11, 13, ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_sieve(input_data, expected):
+&gt;       assert sieve(*input_data) == expected
+E       assert [] == [2, 3, 5, 7, 11, 13, ...]
+E
+E         Right contains 15 more items, first extra item: 2
+E         Use -v to get more diff
+test_sieve.py:17: AssertionError
+======================================================================================================== short test summary info ========================================================================================================
+FAILED test_sieve.py::test_sieve[input_data1-expected1] - assert [] == [2]
+FAILED test_sieve.py::test_sieve[input_data2-expected2] - assert [] == [2, 3]
+FAILED test_sieve.py::test_sieve[input_data3-expected3] - assert [] == [2, 3, 5, 7]
+FAILED test_sieve.py::test_sieve[input_data4-expected4] - assert [] == [2, 3, 5, 7, 11, 13, ...]
+FAILED test_sieve.py::test_sieve[input_data5-expected5] - assert [] == [2, 3, 5, 7, 11, 13, ...]
+====================================================================================================== 5 failed, 1 passed in 0.19s ======================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 12 items
+test_subsequences.py F..FFFFFFFFF                                                                                                                                                                                                  [100%]
+=============================================================================================================== FAILURES ================================================================================================================ 
+_______________________________________________________________________________________________ test_subsequences[input_data0-expected0] ________________________________________________________________________________________________ 
+input_data = [1, 5, 3], expected = [[1, 2, 3], [1, 2, 4], [1, 3, 4], [2, 3, 4]]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_subsequences(input_data, expected):
+&gt;       assert subsequences(*input_data) == expected
+E       assert [] == [[1, 2, 3], [...4], [2, 3, 4]]
+E
+E         Right contains 4 more items, first extra item: [1, 2, 3]
+E         Use -v to get more diff
+test_subsequences.py:22: AssertionError
+_______________________________________________________________________________________________ test_subsequences[input_data3-expected3] ________________________________________________________________________________________________ 
+input_data = [4, 10, 4], expected = [[4, 5, 6, 7], [4, 5, 6, 8], [4, 5, 6, 9], [4, 5, 7, 8], [4, 5, 7, 9], [4, 5, 8, 9], ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_subsequences(input_data, expected):
+&gt;       assert subsequences(*input_data) == expected
+E       assert [] == [[4, 5, 6, 7]...5, 8, 9], ...]
+E
+E         Right contains 15 more items, first extra item: [4, 5, 6, 7]
+E         Use -v to get more diff
+test_subsequences.py:22: AssertionError
+_______________________________________________________________________________________________ test_subsequences[input_data4-expected4] ________________________________________________________________________________________________ 
+input_data = [4, 10, 6], expected = [[4, 5, 6, 7, 8, 9]]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_subsequences(input_data, expected):
+&gt;       assert subsequences(*input_data) == expected
+E       assert [] == [[4, 5, 6, 7, 8, 9]]
+E
+E         Right contains one more item: [4, 5, 6, 7, 8, 9]
+E         Use -v to get more diff
+test_subsequences.py:22: AssertionError
+_______________________________________________________________________________________________ test_subsequences[input_data5-expected5] ________________________________________________________________________________________________ 
+input_data = [1, 10, 2], expected = [[1, 2], [1, 3], [1, 4], [1, 5], [1, 6], [1, 7], ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_subsequences(input_data, expected):
+&gt;       assert subsequences(*input_data) == expected
+E       assert [] == [[1, 2], [1, ..., [1, 7], ...]
+E
+E         Right contains 36 more items, first extra item: [1, 2]
+E         Use -v to get more diff
+test_subsequences.py:22: AssertionError
+_______________________________________________________________________________________________ test_subsequences[input_data6-expected6] ________________________________________________________________________________________________ 
+input_data = [1, 10, 6], expected = [[1, 2, 3, 4, 5, 6], [1, 2, 3, 4, 5, 7], [1, 2, 3, 4, 5, 8], [1, 2, 3, 4, 5, 9], [1, 2, 3, 4, 6, 7], [1, 2, 3, 4, 6, 8], ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_subsequences(input_data, expected):
+&gt;       assert subsequences(*input_data) == expected
+E       assert [] == [[1, 2, 3, 4,...4, 6, 8], ...]
+E
+E         Right contains 84 more items, first extra item: [1, 2, 3, 4, 5, 6]
+E         Use -v to get more diff
+test_subsequences.py:22: AssertionError
+_______________________________________________________________________________________________ test_subsequences[input_data7-expected7] ________________________________________________________________________________________________ 
+input_data = [1, 10, 4], expected = [[1, 2, 3, 4], [1, 2, 3, 5], [1, 2, 3, 6], [1, 2, 3, 7], [1, 2, 3, 8], [1, 2, 3, 9], ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_subsequences(input_data, expected):
+&gt;       assert subsequences(*input_data) == expected
+E       assert [] == [[1, 2, 3, 4]...2, 3, 9], ...]
+E
+E         Right contains 126 more items, first extra item: [1, 2, 3, 4]
+E         Use -v to get more diff
+test_subsequences.py:22: AssertionError
+_______________________________________________________________________________________________ test_subsequences[input_data8-expected8] ________________________________________________________________________________________________ 
+input_data = [1, 10, 1], expected = [[1], [2], [3], [4], [5], [6], ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_subsequences(input_data, expected):
+&gt;       assert subsequences(*input_data) == expected
+E       assert [] == [[1], [2], [3...[5], [6], ...]
+E
+E         Right contains 9 more items, first extra item: [1]
+E         Use -v to get more diff
+test_subsequences.py:22: AssertionError
+_______________________________________________________________________________________________ test_subsequences[input_data9-expected9] ________________________________________________________________________________________________ 
+input_data = [5, 13, 7], expected = [[5, 6, 7, 8, 9, 10, ...], [5, 6, 7, 8, 9, 10, ...], [5, 6, 7, 8, 9, 11, ...], [5, 6, 7, 8, 10, 11, ...], [5, 6, 7, 9, 10, 11, ...], [5, 6, 8, 9, 10, 11, ...], ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_subsequences(input_data, expected):
+&gt;       assert subsequences(*input_data) == expected
+E       assert [] == [[5, 6, 7, 8,...11, ...], ...]
+E
+E         Right contains 8 more items, first extra item: [5, 6, 7, 8, 9, 10, ...]
+E         Use -v to get more diff
+test_subsequences.py:22: AssertionError
+______________________________________________________________________________________________ test_subsequences[input_data10-expected10] _______________________________________________________________________________________________ 
+input_data = [5, 13, 0], expected = [[]]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_subsequences(input_data, expected):
+&gt;       assert subsequences(*input_data) == expected
+E       assert [] == [[]]
+E
+E         Right contains one more item: []
+E         Use -v to get more diff
+test_subsequences.py:22: AssertionError
+______________________________________________________________________________________________ test_subsequences[input_data11-expected11] _______________________________________________________________________________________________ 
+input_data = [1, 5, 0], expected = [[]]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_subsequences(input_data, expected):
+&gt;       assert subsequences(*input_data) == expected
+E       assert [] == [[]]
+E
+E         Right contains one more item: []
+E         Use -v to get more diff
+test_subsequences.py:22: AssertionError
+======================================================================================================== short test summary info ======================================================================================================== 
+FAILED test_subsequences.py::test_subsequences[input_data0-expected0] - assert [] == [[1, 2, 3], [...4], [2, 3, 4]]
+FAILED test_subsequences.py::test_subsequences[input_data3-expected3] - assert [] == [[4, 5, 6, 7]...5, 8, 9], ...]
+FAILED test_subsequences.py::test_subsequences[input_data4-expected4] - assert [] == [[4, 5, 6, 7, 8, 9]]
+FAILED test_subsequences.py::test_subsequences[input_data5-expected5] - assert [] == [[1, 2], [1, ..., [1, 7], ...]
+FAILED test_subsequences.py::test_subsequences[input_data6-expected6] - assert [] == [[1, 2, 3, 4,...4, 6, 8], ...]
+FAILED test_subsequences.py::test_subsequences[input_data7-expected7] - assert [] == [[1, 2, 3, 4]...2, 3, 9], ...]
+FAILED test_subsequences.py::test_subsequences[input_data8-expected8] - assert [] == [[1], [2], [3...[5], [6], ...]
+FAILED test_subsequences.py::test_subsequences[input_data9-expected9] - assert [] == [[5, 6, 7, 8,...11, ...], ...]
+FAILED test_subsequences.py::test_subsequences[input_data10-expected10] - assert [] == [[]]
+FAILED test_subsequences.py::test_subsequences[input_data11-expected11] - assert [] == [[]]
+===================================================================================================== 10 failed, 2 passed in 0.25s ======================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 3 items
+test_topological_ordering.py FFF                                                                                                                                                                                                   [100%]
+=============================================================================================================== FAILURES ================================================================================================================ 
+_________________________________________________________________________________________________________________ test1 _________________________________________________________________________________________________________________ 
+    def test1():
+        """Case 1: Wikipedia graph
+        Output: 5 7 3 11 8 10 2 9
+        """
+        five = Node(5)
+        seven = Node(7)
+        three = Node(3)
+        eleven = Node(11)
+        eight = Node(8)
+        two = Node(2)
+        nine = Node(9)
+        ten = Node(10)
+        five.outgoing_nodes = [eleven]
+        seven.outgoing_nodes = [eleven, eight]
+        three.outgoing_nodes = [eight, ten]
+        eleven.incoming_nodes = [five, seven]
+        eleven.outgoing_nodes = [two, nine, ten]
+        eight.incoming_nodes = [seven, three]
+        eight.outgoing_nodes = [nine]
+        two.incoming_nodes = [eleven]
+        nine.incoming_nodes = [eleven, eight]
+        ten.incoming_nodes = [eleven, three]
+        result = [
+            x.value
+            for x in topological_ordering(
+                [five, seven, three, eleven, eight, two, nine, ten]
+            )
+        ]
+&gt;       assert result == [5, 7, 3, 11, 8, 10, 2, 9]
+E       assert [5, 7, 3] == [5, 7, 3, 11, 8, 10, ...]
+E
+E         Right contains 5 more items, first extra item: 11
+E         Use -v to get more diff
+test_topological_ordering.py:48: AssertionError
+_________________________________________________________________________________________________________________ test2 _________________________________________________________________________________________________________________ 
+    def test2():
+        """Case 2: GeekforGeeks example
+        Output: 4 5 0 2 3 1
+        """
+        five = Node(5)
+        zero = Node(0)
+        four = Node(4)
+        one = Node(1)
+        two = Node(2)
+        three = Node(3)
+        five.outgoing_nodes = [two, zero]
+        four.outgoing_nodes = [zero, one]
+        two.incoming_nodes = [five]
+        two.outgoing_nodes = [three]
+        zero.incoming_nodes = [five, four]
+        one.incoming_nodes = [four, three]
+        three.incoming_nodes = [two]
+        three.outgoing_nodes = [one]
+        result = [
+            x.value for x in topological_ordering([zero, one, two, three, four, five])
+        ]
+&gt;       assert result == [4, 5, 0, 2, 3, 1]
+E       assert [4, 5] == [4, 5, 0, 2, 3, 1]
+E
+E         Right contains 4 more items, first extra item: 0
+E         Use -v to get more diff
+test_topological_ordering.py:76: AssertionError
+_________________________________________________________________________________________________________________ test3 _________________________________________________________________________________________________________________ 
+    def test3():
+        """Case 3: Cooking with InteractivePython"""
+        milk = Node("3/4 cup milk")
+        egg = Node("1 egg")
+        oil = Node("1 Tbl oil")
+        mix = Node("1 cup mix")
+        syrup = Node("heat syrup")
+        griddle = Node("heat griddle")
+        pour = Node("pour 1/4 cup")
+        turn = Node("turn when bubbly")
+        eat = Node("eat")
+        milk.outgoing_nodes = [mix]
+        egg.outgoing_nodes = [mix]
+        oil.outgoing_nodes = [mix]
+        mix.incoming_nodes = [milk, egg, oil]
+        mix.outgoing_nodes = [syrup, pour]
+        griddle.outgoing_nodes = [pour]
+        pour.incoming_nodes = [mix, griddle]
+        pour.outgoing_nodes = [turn]
+        turn.incoming_nodes = [pour]
+        turn.outgoing_nodes = [eat]
+        syrup.incoming_nodes = [mix]
+        syrup.outgoing_nodes = [eat]
+        eat.incoming_nodes = [syrup, turn]
+        result = [
+            x.value
+            for x in topological_ordering(
+                [milk, egg, oil, mix, syrup, griddle, pour, turn, eat]
+            )
+        ]
+        expected = [
+            "3/4 cup milk",
+            "1 egg",
+            "1 Tbl oil",
+            "heat griddle",
+            "1 cup mix",
+            "pour 1/4 cup",
+            "heat syrup",
+            "turn when bubbly",
+            "eat",
+        ]
+&gt;       assert result == expected
+E       AssertionError: assert ['3/4 cup mil...heat griddle'] == ['3/4 cup mil...1/4 cup', ...]
+E
+E         Right contains 5 more items, first extra item: '1 cup mix'
+E         Use -v to get more diff
+test_topological_ordering.py:124: AssertionError
+======================================================================================================== short test summary info ======================================================================================================== 
+FAILED test_topological_ordering.py::test1 - assert [5, 7, 3] == [5, 7, 3, 11, 8, 10, ...]
+FAILED test_topological_ordering.py::test2 - assert [4, 5] == [4, 5, 0, 2, 3, 1]
+FAILED test_topological_ordering.py::test3 - AssertionError: assert ['3/4 cup mil...heat griddle'] == ['3/4 cup mil...1/4 cup', ...]
+=========================================================================================================== 3 failed in 0.20s ===========================================================================================================</t>
   </si>
 </sst>
 </file>
@@ -4516,16 +5345,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F260DC2-3739-4C3E-8301-493701503BE5}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F42" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="11" width="60.953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.953125" style="2" customWidth="1"/>
+    <col min="2" max="6" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="8" width="22.90625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.6796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="41.86328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="60.953125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4556,8 +5390,11 @@
       <c r="J1" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4589,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4621,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -4653,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -4685,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -4714,10 +5551,13 @@
         <v>263</v>
       </c>
       <c r="J6" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -4749,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -4781,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -4813,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -4845,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
@@ -4877,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5748,11 @@
       <c r="J12" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K12" s="2" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -4941,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -4973,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A15" s="2" t="s">
         <v>72</v>
       </c>
@@ -5005,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A16" s="2" t="s">
         <v>77</v>
       </c>
@@ -5036,8 +5879,11 @@
       <c r="J16" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K16" s="2" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -5069,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
         <v>87</v>
       </c>
@@ -5100,8 +5946,11 @@
       <c r="J18" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K18" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5130,10 +5979,13 @@
         <v>276</v>
       </c>
       <c r="J19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A20" s="2" t="s">
         <v>97</v>
       </c>
@@ -5165,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A21" s="2" t="s">
         <v>102</v>
       </c>
@@ -5196,8 +6048,11 @@
       <c r="J21" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K21" s="2" t="s">
+        <v>304</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A22" s="2" t="s">
         <v>107</v>
       </c>
@@ -5229,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A23" s="2" t="s">
         <v>112</v>
       </c>
@@ -5261,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A24" s="2" t="s">
         <v>117</v>
       </c>
@@ -5293,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A25" s="2" t="s">
         <v>122</v>
       </c>
@@ -5325,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A26" s="3" t="s">
         <v>127</v>
       </c>
@@ -5353,7 +6208,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A27" s="2" t="s">
         <v>132</v>
       </c>
@@ -5385,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A28" s="2" t="s">
         <v>137</v>
       </c>
@@ -5417,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A29" s="2" t="s">
         <v>142</v>
       </c>
@@ -5448,8 +6303,11 @@
       <c r="J29" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K29" s="2" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A30" s="2" t="s">
         <v>147</v>
       </c>
@@ -5480,8 +6338,11 @@
       <c r="J30" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K30" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A31" s="2" t="s">
         <v>152</v>
       </c>
@@ -5513,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A32" s="2" t="s">
         <v>157</v>
       </c>
@@ -5544,8 +6405,11 @@
       <c r="J32" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K32" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A33" s="2" t="s">
         <v>162</v>
       </c>
@@ -5576,8 +6440,11 @@
       <c r="J33" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K33" s="2" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A34" s="2" t="s">
         <v>167</v>
       </c>
@@ -5608,8 +6475,11 @@
       <c r="J34" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K34" s="2" t="s">
+        <v>309</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A35" s="2" t="s">
         <v>172</v>
       </c>
@@ -5640,8 +6510,11 @@
       <c r="J35" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K35" s="2" t="s">
+        <v>309</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A36" s="2" t="s">
         <v>177</v>
       </c>
@@ -5673,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A37" s="2" t="s">
         <v>182</v>
       </c>
@@ -5704,8 +6577,11 @@
       <c r="J37" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K37" s="2" t="s">
+        <v>310</v>
+      </c>
     </row>
-    <row r="38" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A38" s="2" t="s">
         <v>187</v>
       </c>
@@ -5737,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A39" s="2" t="s">
         <v>192</v>
       </c>
@@ -5768,8 +6644,11 @@
       <c r="J39" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K39" s="2" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="40" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A40" s="2" t="s">
         <v>197</v>
       </c>
@@ -5800,8 +6679,11 @@
       <c r="J40" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K40" s="2" t="s">
+        <v>312</v>
+      </c>
     </row>
-    <row r="41" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A41" s="2" t="s">
         <v>202</v>
       </c>
@@ -5833,7 +6715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A42" s="2" t="s">
         <v>207</v>
       </c>
@@ -5865,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C43" s="1" t="s">
         <v>212</v>
       </c>
@@ -5882,10 +6764,10 @@
       </c>
       <c r="J43" s="2">
         <f>COUNTIF(J2:J42,TRUE)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C44" s="1" t="s">
         <v>213</v>
       </c>
@@ -5902,10 +6784,10 @@
       </c>
       <c r="J44" s="2">
         <f>COUNTIF(J2:J42,FALSE)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C45" s="1" t="s">
         <v>214</v>
       </c>
@@ -5922,7 +6804,7 @@
       </c>
       <c r="J45" s="2">
         <f>J43/(J43+J44)*100</f>
-        <v>62.5</v>
+        <v>67.5</v>
       </c>
     </row>
   </sheetData>
